--- a/apps/features/backlog/android/free_bonus.xlsx
+++ b/apps/features/backlog/android/free_bonus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\features\backlog\android\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\apps\features\backlog\android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D064FEA-CCE3-4F04-9639-566D5206FCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CCD05A-3231-4CC5-98C4-EFDDD18BC012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1047,10 +1047,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1075,6 +1071,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1935,8 +1935,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
+      <pane ySplit="3" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1953,15 +1953,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1983,13 +1983,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -3647,21 +3647,21 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="19"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -3689,10 +3689,10 @@
       <c r="B46" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="21" t="s">
         <v>201</v>
       </c>
       <c r="E46" s="6" t="s">
@@ -3727,13 +3727,13 @@
       <c r="B47" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="20" t="s">
         <v>202</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="20" t="s">
         <v>203</v>
       </c>
       <c r="F47" s="13"/>
@@ -3765,10 +3765,10 @@
       <c r="B48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="21" t="s">
         <v>205</v>
       </c>
       <c r="E48" s="6" t="s">
@@ -3803,10 +3803,10 @@
       <c r="B49" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="21" t="s">
         <v>205</v>
       </c>
       <c r="E49" s="6" t="s">
@@ -3841,10 +3841,10 @@
       <c r="B50" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="21" t="s">
         <v>208</v>
       </c>
       <c r="E50" s="6" t="s">
@@ -3879,10 +3879,10 @@
       <c r="B51" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="21" t="s">
         <v>210</v>
       </c>
       <c r="E51" s="6" t="s">
@@ -3911,21 +3911,21 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E52" s="19"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="21"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="19"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -3953,10 +3953,10 @@
       <c r="B53" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="21" t="s">
         <v>213</v>
       </c>
       <c r="E53" s="6" t="s">
@@ -3991,10 +3991,10 @@
       <c r="B54" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="21" t="s">
         <v>215</v>
       </c>
       <c r="E54" s="6" t="s">
